--- a/068270 Celltrion.xlsx
+++ b/068270 Celltrion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577D4A10-BA41-4430-ADB1-58696295F405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0CE7EE-59C4-45DC-941D-18DC9A6DE2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26145" yWindow="255" windowWidth="24615" windowHeight="20310" activeTab="1" xr2:uid="{223FD510-5E13-4D33-AFCD-863DA9D9CCA4}"/>
+    <workbookView xWindow="-27015" yWindow="750" windowWidth="26490" windowHeight="19650" xr2:uid="{223FD510-5E13-4D33-AFCD-863DA9D9CCA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Price KRW</t>
   </si>
@@ -179,12 +179,27 @@
   </si>
   <si>
     <t>PD1 (Keytruda?)</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -318,18 +333,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{EC01E760-5482-4EF3-A7C2-28A7E7B7BBCC}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -342,9 +361,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -382,7 +401,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -488,7 +507,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -630,7 +649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -640,13 +659,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1640841-9D06-48FC-A361-9BE42E08264D}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -670,36 +691,28 @@
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
       <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>140.76785100000001</v>
+        <v>142.48709700000001</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="8"/>
       <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="1">
         <f>+J2*J3</f>
-        <v>23803843.6041</v>
+        <v>24094568.102700002</v>
       </c>
       <c r="K4" s="2"/>
     </row>
@@ -707,55 +720,45 @@
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="8"/>
       <c r="I5" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <f>564612+193825+30385</f>
+        <v>788822</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8"/>
       <c r="I6" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="1">
-        <v>171200</v>
+        <f>1783369+107116</f>
+        <v>1890485</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="8"/>
       <c r="I7" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="1">
         <f>+J4-J5+J6</f>
-        <v>23975043.6041</v>
+        <v>25196231.102700002</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -770,109 +773,69 @@
       <c r="B9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -882,13 +845,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494D976F-FCD5-4971-ABB0-7BAF4093FAD3}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -897,12 +860,12 @@
     <col min="3" max="18" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
@@ -951,25 +914,204 @@
       <c r="R2" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="W2">
+        <v>2020</v>
+      </c>
+      <c r="X2">
+        <f>+W2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="Y2">
+        <f>+X2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="Z2">
+        <f>+Y2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="AA2">
+        <f>+Z2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AB2">
+        <f>+AA2+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AC2">
+        <f>+AB2+1</f>
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12">
         <v>401.9</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="12">
         <v>603.4</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="12">
         <v>531.5</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="12">
         <v>596.20000000000005</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="12">
         <v>645.6</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="Y3" s="1">
+        <v>2283.9670000000001</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>2176.4319999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="Y4" s="1">
+        <v>1251.27</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1124.5630000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="Y5" s="1">
+        <f>+Y3-Y4</f>
+        <v>1032.6970000000001</v>
+      </c>
+      <c r="Z5" s="1">
+        <f>+Z3-Z4</f>
+        <v>1051.8689999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="Y6" s="1">
+        <v>385.49900000000002</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>400.38799999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="Y7" s="1">
+        <f>+Y5-Y6</f>
+        <v>647.19800000000009</v>
+      </c>
+      <c r="Z7" s="1">
+        <f>+Z5-Z6</f>
+        <v>651.48099999999977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z8" s="1">
+        <f>54.185-34.743+31.438-19.95</f>
+        <v>30.929999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z9" s="1">
+        <f>+Z7+Z8</f>
+        <v>682.41099999999972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z10" s="1">
+        <v>131.38900000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z11" s="1">
+        <f>+Z9-Z10</f>
+        <v>551.02199999999971</v>
       </c>
     </row>
   </sheetData>
